--- a/test1.xlsx
+++ b/test1.xlsx
@@ -361,34 +361,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>34</v>
+      </c>
+      <c r="D1">
+        <v>169</v>
+      </c>
       <c r="E1">
-        <v>0</v>
+        <v>0.02953699982000784</v>
+      </c>
+      <c r="F1" t="b">
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>0.3719220984926451</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0144092832372141</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3572295895342446</v>
       </c>
     </row>
   </sheetData>
